--- a/docs/07_security_requirement/security_requirements.xlsx
+++ b/docs/07_security_requirement/security_requirements.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="369">
   <si>
     <t>Id</t>
   </si>
@@ -1003,28 +1003,12 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Strong authentication method
-- Condider 2-Factor-Authentication method</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use mutual authentification
-- Using protocol TLS1.2 or higher
-- Use mutual authentication between server and client</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Save contents of communication as a log
 - Save log of the request and response between the server and the client</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>The system shall know the change of the user credential data.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integrity Check with hash
-- Use an alforithm that are stronger than sha256</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1066,9 +1050,6 @@
   </si>
   <si>
     <t>MI-09</t>
-  </si>
-  <si>
-    <t>MI-10</t>
   </si>
   <si>
     <t>MI-11</t>
@@ -1399,6 +1380,92 @@
   </si>
   <si>
     <t>Compromise the connection of network physically by an attacker</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI-10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI-04</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI-05</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI-11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI-08</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI-12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI-09</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI-02</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI-07</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI-03, MI-07</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI-03</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>system requirement</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMU-REQ-D-02</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMU-REQ-D-09</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMU-REQ-D-10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMU-REQ-D-15</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integrity Check with hash
+- Use an algorithm that are stronger than sha256</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Communicate using Encrypted channel
+- using protocol TLS1.2 or higher
+- Consider mutual authentication between server and client</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strong authentication method
+- Consider 2-Factor-Authentication method</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use mutual authentication
+- Using protocol TLS1.2 or higher
+- Use mutual authentication between server and client</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4076,7 +4143,7 @@
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>129</v>
@@ -4085,10 +4152,10 @@
         <v>137</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>105</v>
@@ -4097,7 +4164,7 @@
         <v>237</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="181.5" x14ac:dyDescent="0.3">
@@ -4111,24 +4178,24 @@
         <v>136</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>129</v>
@@ -4137,7 +4204,7 @@
         <v>152</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>41</v>
@@ -4146,7 +4213,7 @@
         <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>258</v>
@@ -4163,10 +4230,10 @@
         <v>152</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>104</v>
@@ -4175,7 +4242,7 @@
         <v>221</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -4192,16 +4259,16 @@
         <v>44</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>222</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="132" x14ac:dyDescent="0.3">
@@ -4238,10 +4305,10 @@
         <v>129</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>43</v>
@@ -4253,7 +4320,7 @@
         <v>245</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
@@ -4279,12 +4346,12 @@
         <v>221</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>129</v>
@@ -4296,7 +4363,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>151</v>
@@ -4310,13 +4377,13 @@
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>30</v>
@@ -4331,12 +4398,12 @@
         <v>239</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>129</v>
@@ -4348,7 +4415,7 @@
         <v>156</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>116</v>
@@ -4357,12 +4424,12 @@
         <v>117</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>129</v>
@@ -4371,10 +4438,10 @@
         <v>154</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>114</v>
@@ -4388,13 +4455,13 @@
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>31</v>
@@ -4403,44 +4470,44 @@
         <v>158</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>157</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>129</v>
@@ -4449,16 +4516,16 @@
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>259</v>
@@ -4466,7 +4533,7 @@
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>129</v>
@@ -4478,7 +4545,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>118</v>
@@ -4492,13 +4559,13 @@
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>33</v>
@@ -4510,7 +4577,7 @@
         <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>259</v>
@@ -4518,7 +4585,7 @@
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>129</v>
@@ -4533,10 +4600,10 @@
         <v>160</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>259</v>
@@ -4544,7 +4611,7 @@
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>129</v>
@@ -4556,21 +4623,21 @@
         <v>33</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>128</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>129</v>
@@ -4582,13 +4649,13 @@
         <v>33</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>127</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>261</v>
@@ -4596,7 +4663,7 @@
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>129</v>
@@ -4608,10 +4675,10 @@
         <v>33</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>241</v>
@@ -4622,19 +4689,19 @@
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>135</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>143</v>
@@ -4643,12 +4710,12 @@
         <v>237</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>135</v>
@@ -4666,15 +4733,15 @@
         <v>144</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>135</v>
@@ -4686,7 +4753,7 @@
         <v>139</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>146</v>
@@ -4700,7 +4767,7 @@
     </row>
     <row r="26" spans="1:8" s="2" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>149</v>
@@ -4712,13 +4779,13 @@
         <v>150</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>263</v>
@@ -4733,223 +4800,295 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F15"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="54.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.5" customWidth="1"/>
-    <col min="5" max="5" width="9.625" customWidth="1"/>
-    <col min="6" max="6" width="54.875" customWidth="1"/>
-    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.5" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="54.875" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="D1" s="8" t="s">
+        <v>360</v>
+      </c>
       <c r="E1" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
         <v>226</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H2" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
         <v>229</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="H3" s="12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>234</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="H4" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B5" s="20" t="s">
         <v>235</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>248</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
         <v>249</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
         <v>250</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
         <v>251</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
         <v>252</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="D10" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
         <v>253</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>254</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="F12" s="12" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="s">
         <v>255</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="20" t="s">
         <v>256</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
         <v>257</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>124</v>
       </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>356</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="F2:F37">
-    <sortCondition ref="F2:F37"/>
+  <sortState ref="H2:H37">
+    <sortCondition ref="H2:H37"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/07_security_requirement/security_requirements.xlsx
+++ b/docs/07_security_requirement/security_requirements.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="373">
   <si>
     <t>Id</t>
   </si>
@@ -1466,6 +1466,25 @@
     <t>Use mutual authentication
 - Using protocol TLS1.2 or higher
 - Use mutual authentication between server and client</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A server and client program must perform an integrity check before using a certificate or key.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR-15</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI-13</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Certificate &amp; Key file existence check
+Integrity Check with hash function
+- Use OpenSSL library of latest version (1.1.1k)
+- Use an algorithm that are stronger than sha256</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4800,10 +4819,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5060,7 +5079,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B14" s="20" t="s">
         <v>256</v>
       </c>
@@ -5072,6 +5091,12 @@
       </c>
       <c r="E14" s="12" t="s">
         <v>359</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -5084,6 +5109,18 @@
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
         <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/docs/07_security_requirement/security_requirements.xlsx
+++ b/docs/07_security_requirement/security_requirements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="threat_modeling_all" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="410">
   <si>
     <t>Id</t>
   </si>
@@ -1012,19 +1012,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Encrypt user credential data in storage
-- Use OpenSSL library of latest version (1.1.1k)
-- Use an algorithm that are stronger than AES256
-- Use cbc of gcm mode</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apply setting policy of cryptographically strong password
-- Enforce passwords longer than 7 characters.
-- Forces the use of mixed uppercase and lowercase letters of the alphabet</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Integrity Check with hash function
 - Use OpenSSL library of latest version (1.1.1k)
 - Use an algorithm that are stronger than sha256</t>
@@ -1121,22 +1108,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Apply setting policy of cryptographically strong password
-- Enforce passwords longer than 7 characters.
-- Forces the use of mixed uppercase and lowercase letters of the alphabet
-Strong authentication method
-- Condider 2-Factor-Authentication method</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apply setting policy of cryptographically strong password
-- Enforce passwords longer than 7 characters.
-- Forces the use of mixed uppercase and lowercase letters of the alphabet
-Strong authentication method
-- Condider 2-Factor-Authentication method</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>An attacker tampers Login or Mode control data to server in order to get information.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1447,11 +1418,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Integrity Check with hash
-- Use an algorithm that are stronger than sha256</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Communicate using Encrypted channel
 - using protocol TLS1.2 or higher
 - Consider mutual authentication between server and client</t>
@@ -1485,6 +1451,205 @@
 Integrity Check with hash function
 - Use OpenSSL library of latest version (1.1.1k)
 - Use an algorithm that are stronger than sha256</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR-16</t>
+  </si>
+  <si>
+    <t>Encrypt user credential data in storage
+- Use OpenSSL library of latest version (1.1.1k)
+- Use an algorithm that are stronger than AES256
+- Use cbc or gcm mode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOT encrypt key must be protected from binary analysis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR-17</t>
+  </si>
+  <si>
+    <t>SR-18</t>
+  </si>
+  <si>
+    <t>MI-06</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI-15</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Face recognition data should be encrypted in the storage.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Every encryption time, newly generated random key is used for encryption to make reverse analysis difficult</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR-61</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brainstorming</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tampering/ Information Disclosure/ Spoofing</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server &lt;=&gt; Client</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>By changing the server/client's certificate or key, an attacker may attempt to connect to an unauthorized client.
+And attacker can try to steal the information of the encryption channel.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need to protect or verify the certificates and keys used by the server and client for TLS communication</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR-62</t>
+  </si>
+  <si>
+    <t>Tampering/ Information Disclosure</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Face Recognition data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>By modifying the face recognition data, an attacker may cause an error or abnormal operation in the face recognition result.
+By stealing facial recognition data, an attacker can steal information from the system.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need to protect face recognition data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR-63</t>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cryptographically robust</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>An attacker can find out the ROOT KEY used for encryption through reverse binary analysis, decrypt the encrypted file, and steal information.
+An attacker can infer the key used for encryption through statistical analysis of the encrypted file.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to preventing reverse analysis of encrypted information
+Need to protect ROOT encrypt key
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Certificate &amp; Key file existance check
+Integrity Check with hash function
+- Use OpenSSL library of latest version (1.1.1k)
+- Use an algorithm that are stronger than sha256</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR-62</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tampering/ Information Disclosure</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Face recognition data should be encrypted in the storage.
+Use well-known cryptographic libraries and robust algorithms.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR-63</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Every enctyption time, newly generated random key is used for encryption to make reverse analysis difficult
+ROOT encrypt key must be protected from binary analysis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI-14</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use random encrypt key
+- use TRNG (True Random Number Generator) is best
+- Cryptographically secure pseudorandom number generator can be used alternatively</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI-14</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI-15</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protect ROOT encryption key
+- HSM (Hardware Secure Module) is best
+- alternatively White-box Cryptography or Code obfuscation method can be used</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encrypt face recognition data in storage
+- Use OpenSSL library of latest version (1.1.1k)
+- Use an algorithm that are stronger than AES256
+- Use cbc or gcm mode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encrypt face recognition data in storage
+- Use OpenSSL library of latest version (1.1.1k)
+- Use an algorithm that are stronger than AES256
+- Use cbc or gcm mode
+Integrity Check with hash
+- Use an alforithm that are stronger than sha256</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use random encrypt key
+- use TRNG (True Random Number Generator) is best
+- Cryptographically secure pseudorandom number generator can be used alternatively
+Protect ROOT encrytpion key
+- HSM (Hardware Secure Module) is best
+- alternatively White-box Cryptography or Code obfuscation method can be used</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply setting policy of cryptographically strong password
+- Enforce passwords longer than 7 characters.
+- Forces the use of mixed the letters of the alphabet and numbers.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply setting policy of cryptographically strong password
+- Enforce passwords longer than 7 characters.
+- Forces the use of mixed the letters of the alphabet and numbers.
+Strong authentication method
+- Condider 2-Factor-Authentication method</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2538,11 +2703,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4107,6 +4272,72 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
     </row>
+    <row r="64" spans="1:8" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4116,10 +4347,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4162,7 +4393,7 @@
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>129</v>
@@ -4171,10 +4402,10 @@
         <v>137</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>105</v>
@@ -4183,7 +4414,7 @@
         <v>237</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="181.5" x14ac:dyDescent="0.3">
@@ -4197,24 +4428,24 @@
         <v>136</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>129</v>
@@ -4223,7 +4454,7 @@
         <v>152</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>41</v>
@@ -4232,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>258</v>
@@ -4249,10 +4480,10 @@
         <v>152</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>104</v>
@@ -4261,7 +4492,7 @@
         <v>221</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>291</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -4278,16 +4509,16 @@
         <v>44</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>222</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="132" x14ac:dyDescent="0.3">
@@ -4324,10 +4555,10 @@
         <v>129</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>43</v>
@@ -4339,7 +4570,7 @@
         <v>245</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
@@ -4365,12 +4596,12 @@
         <v>221</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>291</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>129</v>
@@ -4382,7 +4613,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>151</v>
@@ -4396,13 +4627,13 @@
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>30</v>
@@ -4417,12 +4648,12 @@
         <v>239</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>129</v>
@@ -4434,7 +4665,7 @@
         <v>156</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>116</v>
@@ -4443,12 +4674,12 @@
         <v>117</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>129</v>
@@ -4457,10 +4688,10 @@
         <v>154</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>114</v>
@@ -4474,13 +4705,13 @@
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>31</v>
@@ -4489,44 +4720,44 @@
         <v>158</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>157</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>129</v>
@@ -4535,16 +4766,16 @@
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>259</v>
@@ -4552,7 +4783,7 @@
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>129</v>
@@ -4564,7 +4795,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>118</v>
@@ -4578,13 +4809,13 @@
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>33</v>
@@ -4596,7 +4827,7 @@
         <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>259</v>
@@ -4604,7 +4835,7 @@
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>129</v>
@@ -4619,10 +4850,10 @@
         <v>160</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>259</v>
@@ -4630,7 +4861,7 @@
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>129</v>
@@ -4642,21 +4873,21 @@
         <v>33</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>128</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>129</v>
@@ -4668,13 +4899,13 @@
         <v>33</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>127</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>261</v>
@@ -4682,7 +4913,7 @@
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>129</v>
@@ -4694,10 +4925,10 @@
         <v>33</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>241</v>
@@ -4708,19 +4939,19 @@
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>135</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>143</v>
@@ -4729,12 +4960,12 @@
         <v>237</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>135</v>
@@ -4752,15 +4983,15 @@
         <v>144</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>290</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>135</v>
@@ -4772,7 +5003,7 @@
         <v>139</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>146</v>
@@ -4786,7 +5017,7 @@
     </row>
     <row r="26" spans="1:8" s="2" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>149</v>
@@ -4798,16 +5029,94 @@
         <v>150</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" ht="99" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="198" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -4819,10 +5128,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H16"/>
+  <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4844,7 +5153,7 @@
         <v>46</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>230</v>
@@ -4864,16 +5173,16 @@
         <v>246</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>233</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>267</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
@@ -4891,7 +5200,7 @@
         <v>232</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="66" x14ac:dyDescent="0.3">
@@ -4902,16 +5211,16 @@
         <v>240</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>266</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="66" x14ac:dyDescent="0.3">
@@ -4923,10 +5232,10 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>263</v>
@@ -4941,16 +5250,16 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
         <v>249</v>
       </c>
@@ -4959,14 +5268,14 @@
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
@@ -4978,13 +5287,13 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
@@ -4996,10 +5305,10 @@
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>224</v>
@@ -5013,13 +5322,13 @@
         <v>242</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>264</v>
@@ -5034,13 +5343,13 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
@@ -5052,13 +5361,13 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="66" x14ac:dyDescent="0.3">
@@ -5070,10 +5379,10 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>262</v>
@@ -5087,19 +5396,19 @@
         <v>227</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
         <v>257</v>
       </c>
@@ -5108,19 +5417,67 @@
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="20" t="s">
         <v>371</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
